--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5ECA5F-BDD6-42E7-81CF-625F524A89BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F0893-94B7-4990-976B-011B50ABD289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="450" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>作成者</t>
   </si>
@@ -152,13 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー項目</t>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>画面遷移確認</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
@@ -303,16 +296,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイトル以下の表示</t>
-    <rPh sb="4" eb="6">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「業務終了」と表示されている</t>
     <rPh sb="1" eb="5">
       <t>ギョウムシュウリョウ</t>
@@ -359,16 +342,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>商品検索画面へ遷移すること</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンケンサク</t>
@@ -562,14 +535,76 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>URL直打ち</t>
-    <rPh sb="3" eb="5">
-      <t>ジカウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニュー画面へ遷移</t>
+    <t>「商品修正(完了)」と表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「Fullness Stationery社」と表示されていること</t>
+    <rPh sb="20" eb="21">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateproduct/complete」
+を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8081/updateproduct/complete」
+を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
     <rPh sb="12" eb="14">
       <t>センイ</t>
     </rPh>
@@ -984,6 +1019,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -993,118 +1043,103 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1457,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1476,56 +1511,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1538,50 +1573,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+    </row>
+    <row r="4" spans="1:17" ht="14" customHeight="1">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54"/>
-    </row>
-    <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="45"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1590,20 +1625,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1613,62 +1648,62 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
@@ -1676,19 +1711,19 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
       <c r="G8" s="35"/>
-      <c r="H8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
+      <c r="H8" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1700,18 +1735,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1723,18 +1758,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1746,18 +1781,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1769,18 +1804,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1792,68 +1827,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
+      <c r="C14" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1865,269 +1898,344 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
-    <row r="17" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A17" s="6">
-        <v>12</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="1:17" ht="11" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="23" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="H17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
+      <c r="C19" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
+      <c r="C20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-    </row>
-    <row r="24" spans="1:17" ht="11.25" customHeight="1">
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+    </row>
+    <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
-        <v>19</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
-        <v>20</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+    </row>
+    <row r="26" spans="1:17" ht="33" customHeight="1">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+    </row>
+    <row r="27" spans="1:17" ht="32" customHeight="1">
+      <c r="B27" s="38"/>
+      <c r="C27" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+  <mergeCells count="64">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P5:Q5"/>
@@ -2139,42 +2247,15 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563F0893-94B7-4990-976B-011B50ABD289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB999CA-3BEF-49FF-8C08-92452E4184C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -570,7 +570,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateproduct/complete」
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateproduct/complete」
 を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
@@ -578,13 +591,13 @@
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="69" eb="71">
+    <rPh sb="75" eb="77">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8081/updateproduct/complete」
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8081/admin/updateproduct/complete」
 を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
@@ -592,21 +605,8 @@
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニュー画面へ遷移すること</t>
-    <rPh sb="4" eb="5">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -951,7 +951,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,11 +1028,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1043,30 +1055,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1076,6 +1076,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1124,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,50 +1136,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1495,7 +1492,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:B27"/>
+      <selection activeCell="C27" sqref="C27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1511,25 +1508,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1544,23 +1541,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1573,50 +1570,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="45"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1625,20 +1622,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="26" t="s">
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1648,82 +1645,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="46"/>
+      <c r="Q5" s="59"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1735,18 +1732,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1758,18 +1755,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1781,18 +1778,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1804,18 +1801,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1832,61 +1829,61 @@
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>
-      <c r="H13" s="28" t="s">
+      <c r="H13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="32"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1903,13 +1900,13 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="41"/>
-      <c r="H16" s="28" t="s">
+      <c r="H16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1926,13 +1923,13 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1946,252 +1943,300 @@
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="49" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>13</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="49" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>14</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="49" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>15</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="49" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>16</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>17</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>18</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="49" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>19</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="49" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-    </row>
-    <row r="26" spans="1:17" ht="33" customHeight="1">
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+    </row>
+    <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>20</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="49" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-    </row>
-    <row r="27" spans="1:17" ht="32" customHeight="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="49" t="s">
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+    </row>
+    <row r="27" spans="1:17" ht="79.5" customHeight="1">
+      <c r="B27" s="29"/>
+      <c r="C27" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
@@ -2208,54 +2253,6 @@
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB999CA-3BEF-49FF-8C08-92452E4184C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07603A49-7952-4BF3-84C5-BB38310A3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>作成者</t>
   </si>
@@ -607,6 +607,27 @@
     </rPh>
     <rPh sb="74" eb="76">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -951,7 +972,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,115 +1049,127 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:G27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1508,25 +1541,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="44" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1541,23 +1574,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="48" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1570,50 +1603,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="43"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="57"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="43"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1622,20 +1655,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="58" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1645,82 +1678,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="58" t="s">
+      <c r="P5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="59"/>
+      <c r="Q5" s="45"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="27" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="32" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1732,18 +1765,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="32" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="34"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1755,18 +1788,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="32" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1778,18 +1811,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="32" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1801,18 +1834,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="32" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="34"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1824,66 +1857,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="34"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="32" t="s">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="32" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="34"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1895,18 +1928,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="32" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="34"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1914,7 +1947,9 @@
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
       <c r="B17" s="8"/>
       <c r="C17" s="23" t="s">
         <v>54</v>
@@ -1923,13 +1958,13 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1938,265 +1973,327 @@
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="27" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="27" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="27" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="27" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="27" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
-        <v>19</v>
-      </c>
-      <c r="B25" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="27" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
-        <v>20</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27" t="s">
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
-      <c r="B27" s="29"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="6">
+        <v>22</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+    </row>
+    <row r="28" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A28" s="6">
+        <v>23</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+  <mergeCells count="66">
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:Q4"/>
     <mergeCell ref="A3:B3"/>
@@ -2213,46 +2310,14 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07603A49-7952-4BF3-84C5-BB38310A3D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2EE4A-8C6F-4774-AC78-46ED3D9F5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>作成者</t>
   </si>
@@ -628,6 +628,41 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名　　と書かれていない</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに推移</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1049,6 +1084,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1059,6 +1097,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1091,6 +1150,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,67 +1204,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1524,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1541,25 +1576,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,23 +1609,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="59"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1600,53 +1635,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="43"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="63"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="43"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="63"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1655,20 +1692,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="44" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1678,85 +1715,103 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="45"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1765,21 +1820,27 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1788,21 +1849,27 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1811,21 +1878,27 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1834,21 +1907,27 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1857,69 +1936,89 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="30"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -1928,21 +2027,27 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -1958,16 +2063,22 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -1978,272 +2089,316 @@
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="48" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="48" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="48" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="48" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="48" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="15">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="34"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="48" t="s">
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="62" t="s">
+      <c r="B26" s="36"/>
+      <c r="C26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="48" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="48"/>
-      <c r="Q26" s="48"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="62" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="48" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="48"/>
-      <c r="Q27" s="48"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="26" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="63" t="s">
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -2252,39 +2407,23 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
@@ -2301,23 +2440,39 @@
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C2EE4A-8C6F-4774-AC78-46ED3D9F5A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD61C3C-B598-414A-9537-F898F543FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
   <si>
     <t>作成者</t>
   </si>
@@ -286,16 +286,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「業務終了」と表示されている</t>
     <rPh sb="1" eb="5">
       <t>ギョウムシュウリョウ</t>
@@ -514,23 +504,6 @@
     <t>山崎</t>
     <rPh sb="0" eb="2">
       <t>ヤマサキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>更新した場合</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>データベースは更新されない</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -622,16 +595,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのままの画面が表示されること</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>高良</t>
     <rPh sb="0" eb="2">
       <t>タカラ</t>
@@ -643,26 +606,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品名　　と書かれていない</t>
+    <t>メニュー画面が表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面へ遷移すること</t>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品名　　と書かれていない（修正済み）</t>
     <rPh sb="0" eb="3">
       <t>ショウヒンメイ</t>
     </rPh>
     <rPh sb="6" eb="7">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン前メニューに推移</t>
+    <rPh sb="14" eb="16">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニューに推移（修正済み）</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>スイイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シュウセイズ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1084,7 +1063,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,6 +1082,99 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1105,107 +1183,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1559,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:O23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1576,30 +1555,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1609,23 +1588,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="54" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="59"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1636,54 +1615,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="63"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="63"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1692,20 +1671,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="64" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1715,102 +1694,102 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="65"/>
+      <c r="Q5" s="28"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
       <c r="M6" s="15">
         <v>45504</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
       <c r="M7" s="15">
         <v>45504</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="45"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="27" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="15">
         <v>45504</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
@@ -1820,26 +1799,26 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="27" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
       <c r="M9" s="15">
         <v>45504</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
@@ -1849,26 +1828,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
       <c r="M10" s="15">
         <v>45504</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
@@ -1878,26 +1857,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="27" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="15">
         <v>45504</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
@@ -1907,26 +1886,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="27" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
       <c r="M12" s="15">
         <v>45504</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
@@ -1936,88 +1915,88 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="27" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
       <c r="M13" s="15">
         <v>45504</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
+      <c r="C14" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="15">
         <v>45504</v>
       </c>
       <c r="N14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q14" s="38"/>
+      <c r="Q14" s="33"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
       <c r="M15" s="15">
         <v>45504</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
@@ -2027,26 +2006,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="15">
         <v>45504</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
@@ -2057,27 +2036,27 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="H17" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
       <c r="M17" s="15">
         <v>45504</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
@@ -2089,341 +2068,352 @@
       <c r="B18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="C18" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
       <c r="M18" s="15">
         <v>45504</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
+      <c r="C19" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="15">
         <v>45504</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="C20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
       <c r="M20" s="15">
         <v>45504</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
+      <c r="C21" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
       <c r="M21" s="15">
         <v>45504</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
       <c r="M22" s="15">
         <v>45504</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="38"/>
+        <v>60</v>
+      </c>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="21"/>
-      <c r="C23" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
+      <c r="C23" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
       <c r="M23" s="15">
         <v>45504</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
       <c r="M24" s="15">
         <v>45504</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q24" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="P24" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="45"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
+      <c r="B25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="15">
+        <v>45505</v>
+      </c>
+      <c r="N25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="15">
+        <v>45505</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
+      <c r="O26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="66"/>
+      <c r="C27" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="15">
+        <v>45505</v>
+      </c>
+      <c r="N27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A28" s="6">
-        <v>23</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="17"/>
+      <c r="B28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+  <mergeCells count="63">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
@@ -2440,39 +2430,23 @@
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD61C3C-B598-414A-9537-F898F543FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F174BFD-0914-4F92-AF45-45AA7A00BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1006,37 +1006,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,14 +1096,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1063,128 +1123,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1538,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25:Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1555,25 +1552,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="D1" s="49"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,794 +1585,794 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="53" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="9" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>45496</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="62"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="62"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="15">
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="65">
         <v>45504</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="15">
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="65">
         <v>45504</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="34" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="29" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="15">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="65">
         <v>45504</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
     </row>
     <row r="9" spans="1:17" ht="11" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="29" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="15">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="65">
         <v>45504</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="N9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
     </row>
     <row r="10" spans="1:17" ht="11" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="29" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="15">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="65">
         <v>45504</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
     </row>
     <row r="11" spans="1:17" ht="11" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="29" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="15">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="65">
         <v>45504</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
     </row>
     <row r="12" spans="1:17" ht="11" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="29" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="15">
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="65">
         <v>45504</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="N12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
     </row>
     <row r="13" spans="1:17" ht="11" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="29" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="15">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="65">
         <v>45504</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="N13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="36"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="34" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="29" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="15">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="65">
         <v>45504</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="36"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="29" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="15">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="65">
         <v>45504</v>
       </c>
-      <c r="N15" s="7" t="s">
+      <c r="N15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
     </row>
     <row r="16" spans="1:17" ht="11" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="29" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="15">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="65">
         <v>45504</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
     </row>
     <row r="17" spans="1:17" ht="11" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="23" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="29" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="15">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="65">
         <v>45504</v>
       </c>
-      <c r="N17" s="7" t="s">
+      <c r="N17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="13.5" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="45" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="15">
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="65">
         <v>45504</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="O18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="45"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="29" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="45" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="15">
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="65">
         <v>45504</v>
       </c>
-      <c r="N19" s="7" t="s">
+      <c r="N19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="29" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="45" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="15">
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="65">
         <v>45504</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="O20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="45" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="15">
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="65">
         <v>45504</v>
       </c>
-      <c r="N21" s="7" t="s">
+      <c r="N21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="O21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="15">
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="65">
         <v>45504</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="O22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="15">
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="65">
         <v>45504</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="29" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="45" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="45"/>
-      <c r="M24" s="15">
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="65">
         <v>45504</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="N24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="O24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="45" t="s">
+      <c r="P24" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="45"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="45" t="s">
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="15">
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="65">
         <v>45505</v>
       </c>
-      <c r="N25" s="7" t="s">
+      <c r="N25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="45" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="45"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="15">
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="65">
         <v>45505</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="34"/>
+      <c r="C27" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="15">
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="65">
         <v>45505</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="N27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="17"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
     </row>
     <row r="28" spans="1:17" ht="58.5" customHeight="1">
       <c r="B28" s="4"/>
@@ -2384,36 +2381,23 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
@@ -2430,23 +2414,36 @@
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F174BFD-0914-4F92-AF45-45AA7A00BB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653CEFF-06C4-4B2D-A6DE-EC9DB93527AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>作成者</t>
   </si>
@@ -642,6 +642,13 @@
     </rPh>
     <rPh sb="13" eb="16">
       <t>シュウセイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1057,6 +1064,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1067,6 +1086,102 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1074,114 +1189,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1535,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1668,20 +1675,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="62" t="s">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1691,33 +1698,33 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="62" t="s">
+      <c r="P5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="65">
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="24">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -1726,29 +1733,29 @@
       <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="31" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="65">
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="24">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -1757,29 +1764,29 @@
       <c r="O7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="24" t="s">
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="65">
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="24">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -1796,19 +1803,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="24" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="65">
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="24">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -1825,19 +1832,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="24" t="s">
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="65">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="24">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -1854,19 +1861,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="24" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="65">
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="24">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -1883,19 +1890,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="24" t="s">
+      <c r="C12" s="36"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="65">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="24">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -1912,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="24" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="65">
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="24">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -1933,29 +1940,29 @@
       <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="36"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="32"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="24" t="s">
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="65">
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="24">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -1964,29 +1971,29 @@
       <c r="O14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="35" t="s">
+      <c r="P14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="36"/>
+      <c r="Q14" s="32"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="24" t="s">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="65">
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="24">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2003,19 +2010,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="24" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="65">
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="24">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2039,14 +2046,14 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="65">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="24">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2065,21 +2072,21 @@
       <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="31" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="65">
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="24">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -2088,29 +2095,29 @@
       <c r="O18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="65">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="24">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2119,60 +2126,60 @@
       <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="65">
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="24">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
+        <v>65</v>
+      </c>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="65">
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="24">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2181,29 +2188,29 @@
       <c r="O21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="65">
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="24">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2212,29 +2219,29 @@
       <c r="O22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="65">
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="24">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -2243,29 +2250,29 @@
       <c r="O23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="65">
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="24">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2274,33 +2281,33 @@
       <c r="O24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="31"/>
+      <c r="Q24" s="44"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="65">
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="24">
         <v>45505</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2309,29 +2316,29 @@
       <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="65">
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="24">
         <v>45505</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2340,29 +2347,29 @@
       <c r="O26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="24" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="27" t="s">
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="65">
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="24">
         <v>45505</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -2381,23 +2388,36 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
@@ -2414,36 +2434,23 @@
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP011商品修正(完了).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653CEFF-06C4-4B2D-A6DE-EC9DB93527AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EB95DF-6777-4017-81C9-D0F1919FDD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="商品削除（確認）" sheetId="177" r:id="rId1"/>
@@ -1067,128 +1067,128 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1542,7 +1542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
@@ -1559,25 +1559,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,23 +1592,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
       <c r="N2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1623,50 +1623,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="62"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="60"/>
+      <c r="C4" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="13" t="s">
@@ -1675,20 +1675,20 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="25" t="s">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
       <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
@@ -1698,32 +1698,32 @@
       <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="64"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="24">
         <v>45504</v>
       </c>
@@ -1733,28 +1733,28 @@
       <c r="O6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="24">
         <v>45504</v>
       </c>
@@ -1764,28 +1764,28 @@
       <c r="O7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" ht="11" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="34"/>
       <c r="M8" s="24">
         <v>45504</v>
       </c>
@@ -1803,18 +1803,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="34"/>
       <c r="M9" s="24">
         <v>45504</v>
       </c>
@@ -1832,18 +1832,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="34"/>
       <c r="M10" s="24">
         <v>45504</v>
       </c>
@@ -1861,18 +1861,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="34"/>
       <c r="M11" s="24">
         <v>45504</v>
       </c>
@@ -1890,18 +1890,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="24">
         <v>45504</v>
       </c>
@@ -1919,18 +1919,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="28" t="s">
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="34"/>
       <c r="M13" s="24">
         <v>45504</v>
       </c>
@@ -1940,28 +1940,28 @@
       <c r="O13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="32"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="30"/>
     </row>
     <row r="14" spans="1:17" ht="24.5" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="34"/>
       <c r="M14" s="24">
         <v>45504</v>
       </c>
@@ -1971,28 +1971,28 @@
       <c r="O14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="30"/>
     </row>
     <row r="15" spans="1:17" ht="11" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="34"/>
       <c r="M15" s="24">
         <v>45504</v>
       </c>
@@ -2010,18 +2010,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="34"/>
       <c r="M16" s="24">
         <v>45504</v>
       </c>
@@ -2046,13 +2046,13 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="34"/>
       <c r="M17" s="24">
         <v>45504</v>
       </c>
@@ -2072,20 +2072,20 @@
       <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="44" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="24">
         <v>45504</v>
       </c>
@@ -2095,28 +2095,28 @@
       <c r="O18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" ht="13.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="19"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="44" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="24">
         <v>45504</v>
       </c>
@@ -2126,28 +2126,28 @@
       <c r="O19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
     </row>
     <row r="20" spans="1:17" ht="13.5" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
       <c r="B20" s="19"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="44" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="24">
         <v>45504</v>
       </c>
@@ -2157,28 +2157,28 @@
       <c r="O20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
     </row>
     <row r="21" spans="1:17" ht="13.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="44" t="s">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="24">
         <v>45504</v>
       </c>
@@ -2188,28 +2188,28 @@
       <c r="O21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
     </row>
     <row r="22" spans="1:17" ht="13.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="24">
         <v>45504</v>
       </c>
@@ -2219,28 +2219,28 @@
       <c r="O22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="13.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="19"/>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="24">
         <v>45504</v>
       </c>
@@ -2250,28 +2250,28 @@
       <c r="O23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
     </row>
     <row r="24" spans="1:17" ht="13.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="44" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="24">
         <v>45504</v>
       </c>
@@ -2281,32 +2281,32 @@
       <c r="O24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="44" t="s">
+      <c r="P24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="Q24" s="44"/>
+      <c r="Q24" s="25"/>
     </row>
     <row r="25" spans="1:17" ht="11.25" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="44" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="24">
         <v>45505</v>
       </c>
@@ -2316,28 +2316,28 @@
       <c r="O25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="1:17" ht="68.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="44" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="24">
         <v>45505</v>
       </c>
@@ -2347,28 +2347,28 @@
       <c r="O26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
     </row>
     <row r="27" spans="1:17" ht="79.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="28" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="63" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
       <c r="M27" s="24">
         <v>45505</v>
       </c>
@@ -2388,6 +2388,53 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="C14:G16"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="P22:Q22"/>
@@ -2404,53 +2451,6 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="C14:G16"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
